--- a/raw_data/eurostat/nuts2_emp_countries_lfs.xlsx
+++ b/raw_data/eurostat/nuts2_emp_countries_lfs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aml/AutoEmp/raw_data/eurostat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57012BD9-19B9-104E-9CA1-3163662ACEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E15DD1-7CF2-3244-8657-9F41AA4B11F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,12 @@
     <sheet name="Sheet 9" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet 10" sheetId="12" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="111">
   <si>
     <t>Employment by sex, age, economic activity and NUTS 2 regions (1999-2008, NACE Rev. 1.1) (1 000) [lfst_r_lfe2en1__custom_12476055]</t>
   </si>
@@ -474,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -531,22 +531,21 @@
     <xf numFmtId="165" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -963,22 +962,22 @@
       <c r="A8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -1341,90 +1340,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="23" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="23" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1764,6 +1763,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -1772,12 +1777,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1875,90 +1874,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="23" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="23" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2298,6 +2297,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -2306,12 +2311,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2409,90 +2408,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="23" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="23" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2832,6 +2831,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -2840,12 +2845,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3356,90 +3355,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="23" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="23" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3779,6 +3778,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -3787,12 +3792,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3802,11 +3801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3883,10 +3882,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>96</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -3909,10 +3908,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>97</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -3941,22 +3940,22 @@
       <c r="B13" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="24" t="s">
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3967,22 +3966,22 @@
       <c r="B14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="20">
         <v>35976.699999999997</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="20">
         <v>909.9</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="20">
         <v>12093.2</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="20">
         <v>9018.5</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="20">
         <v>3074.8</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="20">
         <v>22973.5</v>
       </c>
     </row>
@@ -3993,22 +3992,22 @@
       <c r="B15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="21">
         <v>15333</v>
       </c>
-      <c r="D15" s="26">
+      <c r="D15" s="21">
         <v>1008.1</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="21">
         <v>4746.5</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="21">
         <v>3048.8</v>
       </c>
-      <c r="G15" s="26">
+      <c r="G15" s="21">
         <v>1697.7</v>
       </c>
-      <c r="H15" s="26">
+      <c r="H15" s="21">
         <v>9578.2999999999993</v>
       </c>
     </row>
@@ -4019,22 +4018,22 @@
       <c r="B16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="20">
         <v>20619.900000000001</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="20">
         <v>1035.9000000000001</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="20">
         <v>6603.5</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="20">
         <v>5019.3</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="20">
         <v>1584.2</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="20">
         <v>12980.5</v>
       </c>
     </row>
@@ -4045,22 +4044,22 @@
       <c r="B17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="21">
         <v>2349.9</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="21">
         <v>139.9</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="21">
         <v>657.3</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="21">
         <v>505.4</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="21">
         <v>151.9</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H17" s="21">
         <v>1547</v>
       </c>
     </row>
@@ -4071,22 +4070,22 @@
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="20">
         <v>4050.4</v>
       </c>
-      <c r="D18" s="25">
+      <c r="D18" s="20">
         <v>96.4</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="20">
         <v>999.3</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="20">
         <v>780.2</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="20">
         <v>219.1</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="20">
         <v>2952</v>
       </c>
     </row>
@@ -4097,22 +4096,22 @@
       <c r="B19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="21">
         <v>26804.400000000001</v>
       </c>
-      <c r="D19" s="26">
+      <c r="D19" s="21">
         <v>384</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E19" s="21">
         <v>6776</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="21">
         <v>4868.5</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="21">
         <v>1907.5</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="21">
         <v>19575</v>
       </c>
     </row>
@@ -4243,90 +4242,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="23" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="23" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4666,6 +4665,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -4674,12 +4679,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4777,90 +4776,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="23" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="23" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5187,6 +5186,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -5195,12 +5200,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5214,7 +5213,7 @@
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5298,90 +5297,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="23" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="23" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -5708,6 +5707,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -5716,12 +5721,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5729,38 +5728,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="13" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="5" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="5" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="3" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -5768,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>95</v>
       </c>
@@ -5776,8 +5768,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -5785,7 +5777,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -5793,7 +5785,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -5801,7 +5793,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -5809,7 +5801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -5817,409 +5809,247 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="E11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="F11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="G11" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="H11" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="E12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="F12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="23" t="s">
+      <c r="G12" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="23" t="s">
+      <c r="H12" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <v>35022.5</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="15">
+      <c r="D14" s="20">
         <v>791.6</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="15">
+      <c r="E14" s="20">
         <v>10983.9</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="15">
+      <c r="F14" s="20">
         <v>8543.1</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K14" s="15">
+      <c r="G14" s="20">
         <v>2440.6999999999998</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="15">
+      <c r="H14" s="20">
         <v>23247.1</v>
       </c>
-      <c r="N14" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="21">
         <v>17903.8</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="14">
+      <c r="D15" s="21">
         <v>970.2</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="14">
+      <c r="E15" s="21">
         <v>5424.1</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="14">
+      <c r="F15" s="21">
         <v>3194.6</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K15" s="14">
+      <c r="G15" s="21">
         <v>2229.5</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M15" s="14">
+      <c r="H15" s="21">
         <v>11509.5</v>
       </c>
-      <c r="N15" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="20">
         <v>22044.7</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="15">
+      <c r="D16" s="20">
         <v>866.3</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="15">
+      <c r="E16" s="20">
         <v>6847.8</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="15">
+      <c r="F16" s="20">
         <v>5020.2</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="15">
+      <c r="G16" s="20">
         <v>1827.6</v>
       </c>
-      <c r="L16" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="M16" s="15">
+      <c r="H16" s="20">
         <v>14330.7</v>
       </c>
-      <c r="N16" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>85</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="21">
         <v>2367.3000000000002</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="14">
+      <c r="D17" s="21">
         <v>114.1</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="14">
+      <c r="E17" s="21">
         <v>617.4</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I17" s="14">
+      <c r="F17" s="21">
         <v>469.5</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17" s="14">
+      <c r="G17" s="21">
         <v>147.80000000000001</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="14">
+      <c r="H17" s="21">
         <v>1627.4</v>
       </c>
-      <c r="N17" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>87</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="20">
         <v>4240.8</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="15">
+      <c r="D18" s="20">
         <v>91.9</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="15">
+      <c r="E18" s="20">
         <v>956.6</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="15">
+      <c r="F18" s="20">
         <v>713.8</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K18" s="15">
+      <c r="G18" s="20">
         <v>242.8</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="15">
+      <c r="H18" s="20">
         <v>3189.5</v>
       </c>
-      <c r="N18" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="21">
         <v>27763.200000000001</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="18">
+      <c r="D19" s="21">
         <v>332</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G19" s="14">
+      <c r="E19" s="21">
         <v>6206.2</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="F19" s="21">
         <v>4042.6</v>
       </c>
-      <c r="J19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K19" s="14">
+      <c r="G19" s="21">
         <v>2163.6</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M19" s="14">
+      <c r="H19" s="21">
         <v>21150.2</v>
       </c>
-      <c r="N19" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>102</v>
       </c>
@@ -6227,12 +6057,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>100</v>
       </c>
@@ -6241,21 +6071,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
+  <mergeCells count="2">
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6353,90 +6171,90 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="23" t="s">
+      <c r="D11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="23" t="s">
+      <c r="F11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="H11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="23" t="s">
+      <c r="J11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="23" t="s">
+      <c r="L11" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="N11" s="23" t="s">
+      <c r="N11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="23" t="s">
+      <c r="F12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="23" t="s">
+      <c r="H12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="23" t="s">
+      <c r="J12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="L12" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="23" t="s">
+      <c r="L12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="N12" s="23" t="s">
+      <c r="N12" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -6776,6 +6594,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="G11:H11"/>
@@ -6784,12 +6608,6 @@
     <mergeCell ref="I12:J12"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="K12:L12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
